--- a/fuentes/contenidos/grado07/guion06/Escaleta_LE_07_06_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion06/Escaleta_LE_07_06_CO.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1605,25 +1604,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,6 +1635,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2108,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2138,94 +2137,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="57" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="11" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="57"/>
     </row>
     <row r="3" spans="1:21" ht="28">
       <c r="A3" s="7" t="s">
@@ -2317,7 +2316,7 @@
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O4" s="28" t="s">
         <v>135</v>
@@ -4760,6 +4759,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4774,15 +4779,8 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
